--- a/models/toy/inst_estimation/estimated_net_fluxes.xlsx
+++ b/models/toy/inst_estimation/estimated_net_fluxes.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.0012227943493</v>
+        <v>9.924897043638936</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.0012227943493</v>
+        <v>9.924897043638929</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.023247127890521</v>
+        <v>5.031000012360735</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.977975666458775</v>
+        <v>4.893897031278186</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.977975666458761</v>
+        <v>4.893897031278179</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.977975666458732</v>
+        <v>4.893897031278165</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.023247127890524</v>
+        <v>5.031000012360739</v>
       </c>
     </row>
   </sheetData>
